--- a/teaching/traditional_assets/database/data/kuwait/kuwait_computer_services.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_computer_services.xlsx
@@ -591,100 +591,97 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.09</v>
+        <v>-0.116</v>
       </c>
       <c r="G2">
-        <v>-0.009444444444444445</v>
+        <v>-0.03794392523364486</v>
       </c>
       <c r="H2">
-        <v>-0.009444444444444445</v>
+        <v>-0.03794392523364486</v>
       </c>
       <c r="I2">
-        <v>-0.04371719853379863</v>
+        <v>-0.2453133194285434</v>
       </c>
       <c r="J2">
-        <v>-0.04371719853379863</v>
+        <v>-0.2453133194285434</v>
       </c>
       <c r="K2">
         <v>-1.15</v>
       </c>
       <c r="L2">
-        <v>-0.09126984126984126</v>
+        <v>-0.1074766355140187</v>
       </c>
       <c r="M2">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05622317596566524</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.139130434782609</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05622317596566524</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.139130434782609</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>30.9</v>
+        <v>37.3</v>
       </c>
       <c r="V2">
-        <v>1.32618025751073</v>
+        <v>1.643171806167401</v>
       </c>
       <c r="W2">
-        <v>-0.02566964285714286</v>
+        <v>-0.02725118483412322</v>
       </c>
       <c r="X2">
-        <v>0.07521484648426902</v>
+        <v>0.06356401794851509</v>
       </c>
       <c r="Y2">
-        <v>-0.1008844893414119</v>
+        <v>-0.0908152027826383</v>
       </c>
       <c r="Z2">
-        <v>1.015377038485519</v>
+        <v>0.9766104009158767</v>
       </c>
       <c r="AA2">
-        <v>-0.04438943957813194</v>
+        <v>-0.2395755392371143</v>
       </c>
       <c r="AB2">
-        <v>0.07503113307348705</v>
+        <v>0.06347733752046189</v>
       </c>
       <c r="AC2">
-        <v>-0.119420572651619</v>
+        <v>-0.3030528767575762</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.1091835076293141</v>
+        <v>0.05426258942707171</v>
       </c>
       <c r="AF2">
-        <v>0.1091835076293141</v>
+        <v>0.05426258942707171</v>
       </c>
       <c r="AG2">
-        <v>-30.79081649237068</v>
+        <v>-37.24573741057293</v>
       </c>
       <c r="AH2">
-        <v>0.004664131390730905</v>
+        <v>0.002384721948857407</v>
       </c>
       <c r="AI2">
-        <v>0.002580610131831682</v>
+        <v>0.001331458011490291</v>
       </c>
       <c r="AJ2">
-        <v>4.110475343206017</v>
+        <v>2.560594651151886</v>
       </c>
       <c r="AK2">
-        <v>-2.698774760856539</v>
+        <v>-10.78254372570747</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +693,10 @@
         <v>-0</v>
       </c>
       <c r="AP2">
-        <v>164.6567726864743</v>
+        <v>18.96422475080088</v>
       </c>
       <c r="AQ2">
-        <v>0.5467289719626167</v>
+        <v>2.495327102803738</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Automated Systems Company K.P.S.C. (KWSE:ASC)</t>
+          <t>Automated Systems Company - KPSC (KWSE:ASC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,100 +716,97 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.09</v>
+        <v>-0.116</v>
       </c>
       <c r="G3">
-        <v>-0.009444444444444445</v>
+        <v>-0.03794392523364486</v>
       </c>
       <c r="H3">
-        <v>-0.009444444444444445</v>
+        <v>-0.03794392523364486</v>
       </c>
       <c r="I3">
-        <v>-0.04371719853379863</v>
+        <v>-0.2453133194285434</v>
       </c>
       <c r="J3">
-        <v>-0.04371719853379863</v>
+        <v>-0.2453133194285434</v>
       </c>
       <c r="K3">
         <v>-1.15</v>
       </c>
       <c r="L3">
-        <v>-0.09126984126984126</v>
+        <v>-0.1074766355140187</v>
       </c>
       <c r="M3">
-        <v>1.31</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05622317596566524</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-1.139130434782609</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.31</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05622317596566524</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-1.139130434782609</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>30.9</v>
+        <v>37.3</v>
       </c>
       <c r="V3">
-        <v>1.32618025751073</v>
+        <v>1.643171806167401</v>
       </c>
       <c r="W3">
-        <v>-0.02566964285714286</v>
+        <v>-0.02725118483412322</v>
       </c>
       <c r="X3">
-        <v>0.07521484648426902</v>
+        <v>0.06356401794851509</v>
       </c>
       <c r="Y3">
-        <v>-0.1008844893414119</v>
+        <v>-0.0908152027826383</v>
       </c>
       <c r="Z3">
-        <v>1.015377038485519</v>
+        <v>0.9766104009158767</v>
       </c>
       <c r="AA3">
-        <v>-0.04438943957813194</v>
+        <v>-0.2395755392371143</v>
       </c>
       <c r="AB3">
-        <v>0.07503113307348705</v>
+        <v>0.06347733752046189</v>
       </c>
       <c r="AC3">
-        <v>-0.119420572651619</v>
+        <v>-0.3030528767575762</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1091835076293141</v>
+        <v>0.05426258942707171</v>
       </c>
       <c r="AF3">
-        <v>0.1091835076293141</v>
+        <v>0.05426258942707171</v>
       </c>
       <c r="AG3">
-        <v>-30.79081649237068</v>
+        <v>-37.24573741057293</v>
       </c>
       <c r="AH3">
-        <v>0.004664131390730905</v>
+        <v>0.002384721948857407</v>
       </c>
       <c r="AI3">
-        <v>0.002580610131831682</v>
+        <v>0.001331458011490291</v>
       </c>
       <c r="AJ3">
-        <v>4.110475343206017</v>
+        <v>2.560594651151886</v>
       </c>
       <c r="AK3">
-        <v>-2.698774760856539</v>
+        <v>-10.78254372570747</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +818,10 @@
         <v>-0</v>
       </c>
       <c r="AP3">
-        <v>164.6567726864743</v>
+        <v>18.96422475080088</v>
       </c>
       <c r="AQ3">
-        <v>0.5467289719626167</v>
+        <v>2.495327102803738</v>
       </c>
     </row>
   </sheetData>
